--- a/The Mother Bird.xlsx
+++ b/The Mother Bird.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Design Constraints" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Cg Calcs" sheetId="7" r:id="rId3"/>
     <sheet name="Stability Constants" sheetId="8" r:id="rId4"/>
     <sheet name="Subsonic Stability" sheetId="9" r:id="rId5"/>
-    <sheet name="Trim Calcs" sheetId="10" r:id="rId6"/>
-    <sheet name="AeroCalc" sheetId="4" r:id="rId7"/>
+    <sheet name="Supersonic Stability" sheetId="11" r:id="rId6"/>
+    <sheet name="Trim Calcs" sheetId="10" r:id="rId7"/>
+    <sheet name="AeroCalc" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="528">
   <si>
     <t>Initial Estimates 06 Feb 2017</t>
   </si>
@@ -1606,6 +1607,18 @@
   </si>
   <si>
     <t>b/2</t>
+  </si>
+  <si>
+    <t>Angle of Atttack Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha_t = </t>
+  </si>
+  <si>
+    <t>alpha_t = CL_t_trim/A_t</t>
+  </si>
+  <si>
+    <t>Toohey's Slide  [246]</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1775,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1802,6 +1815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,7 +1936,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2039,6 +2058,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2059,6 +2103,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2067,6 +2114,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2077,25 +2139,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2116,30 +2160,21 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2764,14 +2799,14 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="3"/>
       <c r="H2" s="15"/>
     </row>
@@ -2779,152 +2814,152 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="67">
         <v>4500</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="64">
         <v>1.9</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="68" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="3"/>
@@ -2935,7 +2970,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2954,7 +2989,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="66" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="3"/>
@@ -2965,7 +3000,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3216,8 +3251,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3233,20 +3268,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -3258,7 +3293,7 @@
       <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -3270,13 +3305,13 @@
       <c r="G2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
@@ -3300,13 +3335,13 @@
       <c r="G3" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
@@ -3330,13 +3365,13 @@
       <c r="G4" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -3361,13 +3396,13 @@
       <c r="G5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
@@ -3391,13 +3426,13 @@
       <c r="G6" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -3422,13 +3457,13 @@
       <c r="G7" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -3453,13 +3488,13 @@
       <c r="G8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
@@ -3484,13 +3519,13 @@
       <c r="G9" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
@@ -3515,13 +3550,13 @@
       <c r="G10" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
@@ -3546,13 +3581,13 @@
       <c r="G11" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
@@ -3577,13 +3612,13 @@
       <c r="G12" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
@@ -3607,13 +3642,13 @@
       <c r="G13" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
@@ -3637,13 +3672,13 @@
       <c r="G14" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
@@ -3667,14 +3702,14 @@
       <c r="G15" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="70" t="str">
+      <c r="H15" s="82" t="str">
         <f>HYPERLINK("http://www.fighter-planes.com/jetmach1.htm","http://www.fighter-planes.com/jetmach1.htm")</f>
         <v>http://www.fighter-planes.com/jetmach1.htm</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -3699,13 +3734,13 @@
       <c r="G16" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
@@ -3729,13 +3764,13 @@
       <c r="G17" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
@@ -3759,13 +3794,13 @@
       <c r="G18" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
@@ -3789,13 +3824,13 @@
       <c r="G19" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
@@ -3819,11 +3854,11 @@
       <c r="G20" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
@@ -3847,13 +3882,13 @@
       <c r="G21" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
@@ -3877,13 +3912,13 @@
       <c r="G22" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
@@ -3908,13 +3943,13 @@
       <c r="G23" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
     </row>
     <row r="24" spans="1:12" s="19" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
@@ -3939,29 +3974,29 @@
       <c r="G24" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
@@ -3973,7 +4008,7 @@
       <c r="C26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E26" s="33" t="s">
@@ -3985,13 +4020,13 @@
       <c r="G26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
@@ -4004,7 +4039,7 @@
         <f>C24</f>
         <v>74685.958905075502</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="54" t="s">
         <v>167</v>
       </c>
       <c r="E27" s="21" t="s">
@@ -4016,13 +4051,13 @@
       <c r="G27" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
@@ -4035,7 +4070,7 @@
         <f>C4 - (C4/(EXP(0.75/((1/C13)*4.289))))</f>
         <v>16769.798627411757</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="54" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="49" t="s">
@@ -4047,13 +4082,13 @@
       <c r="G28" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="70" t="s">
         <v>516</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -4065,7 +4100,7 @@
       <c r="C29" s="31">
         <v>49.942999999999998</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="54" t="s">
         <v>167</v>
       </c>
       <c r="E29" s="21" t="s">
@@ -4077,13 +4112,13 @@
       <c r="G29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
@@ -4096,7 +4131,7 @@
         <f>C27/C29</f>
         <v>1495.423961417526</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="54" t="s">
         <v>167</v>
       </c>
       <c r="E30" s="21" t="s">
@@ -4108,29 +4143,29 @@
       <c r="G30" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
@@ -4142,7 +4177,7 @@
       <c r="C32" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="33" t="s">
@@ -4154,13 +4189,13 @@
       <c r="G32" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
@@ -4185,13 +4220,13 @@
       <c r="G33" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
@@ -4216,13 +4251,13 @@
       <c r="G34" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
@@ -4247,13 +4282,13 @@
       <c r="G35" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
@@ -4278,13 +4313,13 @@
       <c r="G36" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
@@ -4309,13 +4344,13 @@
       <c r="G37" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
@@ -4340,13 +4375,13 @@
       <c r="G38" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
@@ -4370,13 +4405,13 @@
       <c r="G39" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
@@ -4400,13 +4435,13 @@
       <c r="G40" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
@@ -4430,13 +4465,13 @@
       <c r="G41" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
@@ -4460,13 +4495,13 @@
       <c r="G42" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="69" t="s">
+      <c r="H42" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
@@ -4490,13 +4525,13 @@
       <c r="G43" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="69" t="s">
+      <c r="H43" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
@@ -4520,13 +4555,13 @@
       <c r="G44" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H44" s="69" t="s">
+      <c r="H44" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
@@ -4550,13 +4585,13 @@
       <c r="G45" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="69" t="s">
+      <c r="H45" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
@@ -4580,29 +4615,29 @@
       <c r="G46" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H46" s="69" t="s">
+      <c r="H46" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
@@ -4614,7 +4649,7 @@
       <c r="C48" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E48" s="33" t="s">
@@ -4626,13 +4661,13 @@
       <c r="G48" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
@@ -4656,13 +4691,13 @@
       <c r="G49" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
@@ -4686,13 +4721,13 @@
       <c r="G50" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H50" s="69" t="s">
+      <c r="H50" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
@@ -4716,13 +4751,13 @@
       <c r="G51" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H51" s="69" t="s">
+      <c r="H51" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
@@ -4746,13 +4781,13 @@
       <c r="G52" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="69" t="s">
+      <c r="H52" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
@@ -4776,13 +4811,13 @@
       <c r="G53" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="69" t="s">
+      <c r="H53" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
@@ -4806,13 +4841,13 @@
       <c r="G54" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H54" s="69" t="s">
+      <c r="H54" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
@@ -4836,13 +4871,13 @@
       <c r="G55" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H55" s="69" t="s">
+      <c r="H55" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
@@ -4866,13 +4901,13 @@
       <c r="G56" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H56" s="69" t="s">
+      <c r="H56" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
@@ -4896,13 +4931,13 @@
       <c r="G57" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H57" s="69" t="s">
+      <c r="H57" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
@@ -4926,13 +4961,13 @@
       <c r="G58" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -4956,13 +4991,13 @@
       <c r="G59" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="69" t="s">
+      <c r="H59" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
@@ -4987,13 +5022,13 @@
       <c r="G60" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
     </row>
     <row r="61" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
@@ -5018,11 +5053,11 @@
       <c r="G61" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
     </row>
     <row r="62" spans="1:12" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
@@ -5044,27 +5079,27 @@
       <c r="G62" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
     </row>
     <row r="63" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
     </row>
     <row r="64" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
@@ -5076,7 +5111,7 @@
       <c r="C64" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="86" t="s">
+      <c r="D64" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E64" s="50" t="s">
@@ -5088,13 +5123,13 @@
       <c r="G64" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="63" t="s">
+      <c r="H64" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
     </row>
     <row r="65" spans="1:12" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="49" t="s">
@@ -5119,13 +5154,13 @@
       <c r="G65" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="H65" s="69" t="s">
+      <c r="H65" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
     </row>
     <row r="66" spans="1:12" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="49" t="s">
@@ -5134,7 +5169,7 @@
       <c r="B66" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="C66" s="88">
+      <c r="C66" s="55">
         <f>C65-C27+C28</f>
         <v>60083.839722336255</v>
       </c>
@@ -5150,13 +5185,13 @@
       <c r="G66" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="H66" s="69" t="s">
+      <c r="H66" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
     </row>
     <row r="67" spans="1:12" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="49" t="s">
@@ -5181,13 +5216,13 @@
       <c r="G67" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="H67" s="69" t="s">
+      <c r="H67" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
     </row>
     <row r="68" spans="1:12" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
@@ -5212,70 +5247,16 @@
       <c r="G68" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="H68" s="69" t="s">
+      <c r="H68" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="H64:L64"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H6:L6"/>
@@ -5290,6 +5271,60 @@
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="H64:L64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" display="http://www.fighter-planes.com/jetmach1.htm"/>
@@ -5308,7 +5343,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5324,20 +5359,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -5361,13 +5396,13 @@
       <c r="G2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
@@ -5392,13 +5427,13 @@
       <c r="G3" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
@@ -5423,13 +5458,13 @@
       <c r="G4" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -5454,13 +5489,13 @@
       <c r="G5" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
@@ -5485,13 +5520,13 @@
       <c r="G6" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -5516,13 +5551,13 @@
       <c r="G7" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -5547,13 +5582,13 @@
       <c r="G8" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
@@ -5578,13 +5613,13 @@
       <c r="G9" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
@@ -5609,13 +5644,13 @@
       <c r="G10" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
@@ -5640,13 +5675,13 @@
       <c r="G11" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
@@ -5671,13 +5706,13 @@
       <c r="G12" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
@@ -5702,13 +5737,13 @@
       <c r="G13" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
@@ -5733,13 +5768,13 @@
       <c r="G14" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
@@ -5764,13 +5799,13 @@
       <c r="G15" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -5795,29 +5830,29 @@
       <c r="G16" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
@@ -5841,13 +5876,13 @@
       <c r="G18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
@@ -5872,13 +5907,13 @@
       <c r="G19" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -5903,13 +5938,13 @@
       <c r="G20" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
@@ -5934,13 +5969,13 @@
       <c r="G21" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
@@ -5965,13 +6000,13 @@
       <c r="G22" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
@@ -5996,29 +6031,29 @@
       <c r="G23" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
@@ -6042,13 +6077,13 @@
       <c r="G25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
@@ -6072,13 +6107,13 @@
       <c r="G26" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
@@ -6103,13 +6138,13 @@
       <c r="G27" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
@@ -6134,13 +6169,13 @@
       <c r="G28" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -6165,13 +6200,13 @@
       <c r="G29" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
@@ -6196,13 +6231,13 @@
       <c r="G30" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
@@ -6227,13 +6262,13 @@
       <c r="G31" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -6258,29 +6293,29 @@
       <c r="G32" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
@@ -6304,13 +6339,13 @@
       <c r="G34" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
@@ -6335,13 +6370,13 @@
       <c r="G35" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
@@ -6366,29 +6401,29 @@
       <c r="G36" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="76"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
@@ -6412,13 +6447,13 @@
       <c r="G38" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
@@ -6443,13 +6478,13 @@
       <c r="G39" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
@@ -6474,29 +6509,29 @@
       <c r="G40" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="76"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
@@ -6520,13 +6555,13 @@
       <c r="G42" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
@@ -6551,13 +6586,13 @@
       <c r="G43" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="H43" s="69" t="s">
+      <c r="H43" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
@@ -6582,13 +6617,13 @@
       <c r="G44" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="69" t="s">
+      <c r="H44" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
@@ -6613,29 +6648,29 @@
       <c r="G45" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="H45" s="69" t="s">
+      <c r="H45" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="76"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="85"/>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
@@ -6659,13 +6694,13 @@
       <c r="G47" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
@@ -6690,13 +6725,13 @@
       <c r="G48" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="H48" s="69" t="s">
+      <c r="H48" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
@@ -6721,29 +6756,29 @@
       <c r="G49" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
     </row>
     <row r="50" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="76"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="85"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
@@ -6767,13 +6802,13 @@
       <c r="G51" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="63" t="s">
+      <c r="H51" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
@@ -6798,13 +6833,13 @@
       <c r="G52" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="H52" s="69" t="s">
+      <c r="H52" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
@@ -6829,29 +6864,29 @@
       <c r="G53" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="H53" s="69" t="s">
+      <c r="H53" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
     </row>
     <row r="54" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="76"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="85"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
@@ -6875,13 +6910,13 @@
       <c r="G55" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="63" t="s">
+      <c r="H55" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
@@ -6906,13 +6941,13 @@
       <c r="G56" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="H56" s="69" t="s">
+      <c r="H56" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
@@ -6937,13 +6972,13 @@
       <c r="G57" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="H57" s="69" t="s">
+      <c r="H57" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
@@ -6968,13 +7003,13 @@
       <c r="G58" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -6999,13 +7034,13 @@
       <c r="G59" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="H59" s="69" t="s">
+      <c r="H59" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
@@ -7030,13 +7065,13 @@
       <c r="G60" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
@@ -7061,13 +7096,13 @@
       <c r="G61" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="H61" s="69" t="s">
+      <c r="H61" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
@@ -7092,13 +7127,13 @@
       <c r="G62" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="H62" s="69" t="s">
+      <c r="H62" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
@@ -7123,13 +7158,13 @@
       <c r="G63" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="H63" s="69" t="s">
+      <c r="H63" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
@@ -7154,13 +7189,13 @@
       <c r="G64" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="H64" s="69" t="s">
+      <c r="H64" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
@@ -7185,13 +7220,13 @@
       <c r="G65" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="H65" s="69" t="s">
+      <c r="H65" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
@@ -7216,13 +7251,13 @@
       <c r="G66" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="H66" s="69" t="s">
+      <c r="H66" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
@@ -7247,13 +7282,13 @@
       <c r="G67" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="H67" s="69" t="s">
+      <c r="H67" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
@@ -7278,29 +7313,29 @@
       <c r="G68" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="H68" s="69" t="s">
+      <c r="H68" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
     </row>
     <row r="69" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="83" t="s">
         <v>373</v>
       </c>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="76"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="85"/>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
@@ -7324,13 +7359,13 @@
       <c r="G70" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
@@ -7355,11 +7390,11 @@
       <c r="G71" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="69"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
     </row>
     <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
@@ -7384,11 +7419,11 @@
       <c r="G72" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="69"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
     </row>
     <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
@@ -7413,11 +7448,11 @@
       <c r="G73" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="69"/>
-      <c r="L73" s="69"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
     </row>
     <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
@@ -7442,19 +7477,67 @@
       <c r="G74" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H56:L56"/>
     <mergeCell ref="A69:L69"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="H25:L25"/>
@@ -7471,59 +7554,11 @@
     <mergeCell ref="H68:L68"/>
     <mergeCell ref="H57:L57"/>
     <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="H74:L74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7552,20 +7587,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -7589,13 +7624,13 @@
       <c r="G2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
@@ -7619,13 +7654,13 @@
       <c r="G3" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -7649,13 +7684,13 @@
       <c r="G4" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -7679,13 +7714,13 @@
       <c r="G5" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
@@ -7709,13 +7744,13 @@
       <c r="G6" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -7740,13 +7775,13 @@
       <c r="G7" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -7771,13 +7806,13 @@
       <c r="G8" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
@@ -7802,13 +7837,13 @@
       <c r="G9" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:12" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -7833,13 +7868,13 @@
       <c r="G10" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="70" t="s">
         <v>499</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
@@ -7864,13 +7899,13 @@
       <c r="G11" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
@@ -7895,13 +7930,13 @@
       <c r="G12" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
@@ -7926,13 +7961,13 @@
       <c r="G13" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
@@ -7957,13 +7992,13 @@
       <c r="G14" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
@@ -7988,13 +8023,13 @@
       <c r="G15" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -8018,16 +8053,22 @@
       <c r="G16" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
@@ -8038,12 +8079,6 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8053,10 +8088,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8072,20 +8107,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -8109,13 +8144,13 @@
       <c r="G2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
@@ -8139,13 +8174,13 @@
       <c r="G3" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="91" t="s">
         <v>456</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
@@ -8170,13 +8205,13 @@
       <c r="G4" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
@@ -8200,13 +8235,13 @@
       <c r="G5" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>457</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
@@ -8230,13 +8265,13 @@
       <c r="G6" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
@@ -8261,29 +8296,29 @@
       <c r="G7" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>461</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="83" t="s">
         <v>468</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8307,13 +8342,13 @@
       <c r="G9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -8337,13 +8372,13 @@
       <c r="G10" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -8367,24 +8402,23 @@
       <c r="G11" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="45">
-        <f>C11</f>
-        <v>0.28999999999999998</v>
+      <c r="C12" s="61">
+        <v>9.6998634451035182E-2</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>167</v>
@@ -8398,13 +8432,13 @@
       <c r="G12" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
@@ -8429,56 +8463,56 @@
       <c r="G13" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="45">
+        <f>C12/C16</f>
+        <v>1.4360848383200198E-2</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="H14" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C15" s="45">
         <f>C11/C13</f>
         <v>6.7543805117048263</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="C15" s="45">
-        <f>C14</f>
-        <v>6.7543805117048263</v>
-      </c>
       <c r="D15" s="23" t="s">
         <v>167</v>
       </c>
@@ -8489,194 +8523,195 @@
         <v>25</v>
       </c>
       <c r="G15" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="45">
+        <f>C15</f>
+        <v>6.7543805117048263</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H16" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C17" s="45">
         <f>$C$7/C13</f>
         <v>0.59709396429154393</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="D17" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G17" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H17" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B18" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C18" s="45">
         <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Subsonic Stability'!C13</f>
         <v>54308.794194706694</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="D18" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H18" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C19" s="45">
         <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Subsonic Stability'!C13</f>
         <v>33974.714705500453</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="D19" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H19" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-    </row>
-    <row r="19" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+    </row>
+    <row r="20" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
         <v>487</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="D21" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G21" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C21" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C22" s="45">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>167</v>
@@ -8685,28 +8720,27 @@
         <v>179</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="83" t="s">
-        <v>452</v>
-      </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
+      <c r="H22" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="C23" s="45">
-        <f>C22</f>
         <v>0.4</v>
       </c>
       <c r="D23" s="23" t="s">
@@ -8721,316 +8755,316 @@
       <c r="G23" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="83" t="s">
-        <v>493</v>
-      </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
+      <c r="H23" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" s="45">
-        <f>3.94*PI()/180</f>
-        <v>6.876597252857658E-2</v>
+        <v>491</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="61">
+        <v>0.13835156002066809</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>451</v>
+        <v>179</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
+      <c r="H24" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="45">
+        <f>3.2*PI()/180</f>
+        <v>5.5850536063818547E-2</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="1:12" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C26" s="45">
+        <f>C24/C28</f>
+        <v>1.9317521981049697E-2</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="H26" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B27" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="C25" s="45">
-        <f>C22/C24</f>
-        <v>5.8168304074195261</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="C27" s="45">
+        <f>C23/C25</f>
+        <v>7.1619724391352904</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>465</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="C26" s="45">
-        <f>C25</f>
-        <v>5.8168304074195261</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>472</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="C27" s="45">
-        <f>$C$7/C24</f>
-        <v>0.3728048609536036</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>475</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="H27" s="69" t="s">
-        <v>477</v>
-      </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
+        <v>466</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C28" s="45">
-        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Subsonic Stability'!C24</f>
-        <v>86982.377693961127</v>
+        <f>C27</f>
+        <v>7.1619724391352904</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="H28" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
+        <v>471</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>483</v>
+      <c r="A29" s="43" t="s">
+        <v>473</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C29" s="45">
-        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Subsonic Stability'!C24</f>
-        <v>54414.786967346256</v>
+        <f>$C$7/C25</f>
+        <v>0.45901598504912439</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>266</v>
+        <v>475</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C30" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Subsonic Stability'!C25</f>
+        <v>70645.585944333914</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Subsonic Stability'!C25</f>
+        <v>44194.750836423358</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H31" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-    </row>
-    <row r="30" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+    </row>
+    <row r="32" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B33" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C33" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="34" t="s">
+      <c r="D33" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F33" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G33" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H33" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C32" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-    </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="C33" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H33" s="83" t="s">
-        <v>452</v>
-      </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="88"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="C34" s="45">
-        <f>C33</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>167</v>
@@ -9039,498 +9073,592 @@
         <v>179</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="83" t="s">
-        <v>493</v>
-      </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
+      <c r="H34" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="C36" s="61">
+        <v>0.17281437134119643</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B37" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C37" s="45">
         <f>4.91*PI()/180</f>
         <v>8.5695666272921578E-2</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="D37" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F37" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G37" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H37" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-    </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="C36" s="45">
-        <f>C33/C35</f>
-        <v>5.8346007650796663</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F36" s="23" t="s">
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+    </row>
+    <row r="38" spans="1:12" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" s="45">
+        <f>C36/C40</f>
+        <v>2.9618885387239825E-2</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="F38" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="H36" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-    </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="C37" s="45">
-        <f>C36</f>
-        <v>5.8346007650796663</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="H37" s="69" t="s">
-        <v>472</v>
-      </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-    </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="C38" s="45">
-        <f>$C$7/C35</f>
-        <v>0.29915502080594669</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="G38" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="H38" s="69" t="s">
-        <v>477</v>
-      </c>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
+        <v>526</v>
+      </c>
+      <c r="H38" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C39" s="45">
-        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Subsonic Stability'!C35</f>
-        <v>108396.82093333734</v>
+        <f>C35/C37</f>
+        <v>5.8346007650796663</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
+        <v>466</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C40" s="45">
-        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Subsonic Stability'!C35</f>
-        <v>67811.320814637089</v>
+        <f>C39</f>
+        <v>5.8346007650796663</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="H40" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="45">
+        <f>$C$7/C37</f>
+        <v>0.29915502080594669</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Subsonic Stability'!C37</f>
+        <v>108396.82093333734</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H42" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-    </row>
-    <row r="41" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="74" t="s">
-        <v>489</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="81"/>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>503</v>
-      </c>
-      <c r="H42" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="79"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C43" s="45">
-        <f xml:space="preserve"> C11*'Stability Constants'!$C$8/'Initial Estimates'!$C$10+'Subsonic Stability'!$C$5-C12*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + ('Subsonic Stability'!C17+'Stability Constants'!$C$11*'Subsonic Stability'!C18)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
-        <v>-0.1930013655489648</v>
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Subsonic Stability'!C37</f>
+        <v>67811.320814637089</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="H43" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="H43" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-    </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="C44" s="45">
-        <f xml:space="preserve"> C22*'Stability Constants'!$C$8/'Initial Estimates'!$C$10+'Subsonic Stability'!$C$5-C23*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + ('Subsonic Stability'!C28+'Stability Constants'!$C$11*'Subsonic Stability'!C29)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
-        <v>-0.26164843997933196</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="H44" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+    </row>
+    <row r="44" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="93"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="C45" s="45">
-        <f xml:space="preserve"> C33*'Stability Constants'!$C$8/'Initial Estimates'!$C$10+'Subsonic Stability'!$C$5-C34*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + ('Subsonic Stability'!C39+'Stability Constants'!$C$11*'Subsonic Stability'!C40)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
-        <v>-0.32718562865880357</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="H45" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
+      <c r="A45" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="88"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="C46" s="45">
-        <f xml:space="preserve"> ( C14 + C15*(1 - C16)*'Stability Constants'!$C$16*('Subsonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C15*(1 - C16)*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
-        <v>-0.14210112144402015</v>
+        <v>494</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46" s="61">
+        <f>(C11 + C12* 'Stability Constants'!$C$16*'Subsonic Stability'!$C$4/'Initial Estimates'!$C$5)*'Stability Constants'!$C$8/'Initial Estimates'!$C$10 - 'Subsonic Stability'!C12*'Stability Constants'!$C$16*'Subsonic Stability'!$C$4/'Initial Estimates'!$C$5*'Stability Constants'!$C$10/'Initial Estimates'!$C$10+'Subsonic Stability'!$C$5+('Subsonic Stability'!C18+'Stability Constants'!$C$11*'Subsonic Stability'!C19)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
+        <v>0</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>465</v>
+        <v>179</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47" s="61">
+        <f>(C23 + C24* 'Stability Constants'!$C$16*'Subsonic Stability'!$C$4/'Initial Estimates'!$C$5)*'Stability Constants'!$C$8/'Initial Estimates'!$C$10 - 'Subsonic Stability'!C24*'Stability Constants'!$C$16*'Subsonic Stability'!$C$4/'Initial Estimates'!$C$5*'Stability Constants'!$C$10/'Initial Estimates'!$C$10+'Subsonic Stability'!$C$5+('Subsonic Stability'!C30+'Stability Constants'!$C$11*'Subsonic Stability'!C31)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
+        <v>-6.1705484421749821E-3</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="C48" s="61">
+        <f>(C35 + C36* 'Stability Constants'!$C$16*'Subsonic Stability'!$C$4/'Initial Estimates'!$C$5)*'Stability Constants'!$C$8/'Initial Estimates'!$C$10 - 'Subsonic Stability'!C36*'Stability Constants'!$C$16*'Subsonic Stability'!$C$4/'Initial Estimates'!$C$5*'Stability Constants'!$C$10/'Initial Estimates'!$C$10+'Subsonic Stability'!$C$5+('Subsonic Stability'!C42+'Stability Constants'!$C$11*'Subsonic Stability'!C43)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C49" s="45">
+        <f xml:space="preserve"> ( C15 + C16*(1 - C17)*'Stability Constants'!$C$16*('Subsonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C16*(1 - C17)*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
+        <v>-0.14210112144402015</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="H46" s="69" t="s">
+      <c r="H49" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-    </row>
-    <row r="47" spans="1:12" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+    </row>
+    <row r="50" spans="1:12" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B50" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="C47" s="45">
-        <f xml:space="preserve"> ( C25 + C26*(1 - C27)*'Stability Constants'!$C$16*('Subsonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C26*(1 - C27)*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
-        <v>-1.2072589393736919</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="46" t="s">
+      <c r="C50" s="45">
+        <f xml:space="preserve"> ( C27 + C28*(1 - C29)*'Stability Constants'!$C$16*('Subsonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C28*(1 - C29)*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
+        <v>-1.0521023248250974</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F50" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G50" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="H47" s="69" t="s">
+      <c r="H50" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-    </row>
-    <row r="48" spans="1:12" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+    </row>
+    <row r="51" spans="1:12" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B51" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="C48" s="45">
-        <f xml:space="preserve"> ( C36 + C37*(1 - C38)*'Stability Constants'!$C$16*('Subsonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C37*(1 - C38)*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
+      <c r="C51" s="45">
+        <f xml:space="preserve"> ( C39 + C40*(1 - C41)*'Stability Constants'!$C$16*('Subsonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C40*(1 - C41)*'Stability Constants'!$C$16*'Subsonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
         <v>-1.5915809223092039</v>
       </c>
-      <c r="D48" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="46" t="s">
+      <c r="D51" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F51" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G51" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="H48" s="69" t="s">
+      <c r="H51" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-    </row>
-    <row r="49" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-    </row>
-    <row r="52" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="52"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="52">
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H38:L38"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H24:L24"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
     <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9538,6 +9666,1492 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51" style="56" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="56"/>
+    <col min="4" max="4" width="2" style="56" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="56"/>
+    <col min="6" max="6" width="30.33203125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="52.83203125" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="15.1640625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="22">
+        <f>'Initial Estimates'!C5*'Initial Estimates'!C10/'Stability Constants'!C9</f>
+        <v>584.70464126028173</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="22">
+        <f>2*C11/(PI()*'Initial Estimates'!C6)*(1+C6)</f>
+        <v>2.0977556340044026E-2</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+    </row>
+    <row r="8" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="45">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="45">
+        <f>C11</f>
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="45">
+        <f>4*PI()/180</f>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="45">
+        <f>C11/C13</f>
+        <v>3.3990721196136091</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="45">
+        <f>C14</f>
+        <v>3.3990721196136091</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" s="45">
+        <f>$C$7/C13</f>
+        <v>0.30048136069560616</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Supersonic Stability'!C13</f>
+        <v>88306.982430417396</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="C18" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Supersonic Stability'!C13</f>
+        <v>55243.438545529192</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+    </row>
+    <row r="19" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="45">
+        <f>C22</f>
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="45">
+        <f>3.94*PI()/180</f>
+        <v>6.876597252857658E-2</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="45">
+        <f>C22/C24</f>
+        <v>5.8168304074195261</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" s="45">
+        <f>C25</f>
+        <v>5.8168304074195261</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" s="45">
+        <f>$C$7/C24</f>
+        <v>0.30505721898031085</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="C28" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Supersonic Stability'!C24</f>
+        <v>86982.377693961127</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Supersonic Stability'!C24</f>
+        <v>54414.786967346256</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+    </row>
+    <row r="30" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C32" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="C33" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="45">
+        <f>C33</f>
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="C35" s="45">
+        <f>4.91*PI()/180</f>
+        <v>8.5695666272921578E-2</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="45">
+        <f>C33/C35</f>
+        <v>5.8346007650796663</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="45">
+        <f>C36</f>
+        <v>5.8346007650796663</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F37" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C38" s="45">
+        <f>$C$7/C35</f>
+        <v>0.24479133254224536</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="C39" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14*'Supersonic Stability'!C35</f>
+        <v>108396.82093333734</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="C40" s="45">
+        <f>2*'Stability Constants'!$C$13*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15*'Supersonic Stability'!C35</f>
+        <v>67811.320814637089</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+    </row>
+    <row r="41" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="93"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="88"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" s="45">
+        <f xml:space="preserve"> C11*'Stability Constants'!$C$8/'Initial Estimates'!$C$10+'Supersonic Stability'!$C$5-C12*'Stability Constants'!$C$16*'Supersonic Stability'!$C$3 + ('Supersonic Stability'!C17+'Stability Constants'!$C$11*'Supersonic Stability'!C18)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
+        <v>-0.14135925730528198</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="C44" s="45">
+        <f xml:space="preserve"> C22*'Stability Constants'!$C$8/'Initial Estimates'!$C$10+'Supersonic Stability'!$C$5-C23*'Stability Constants'!$C$16*'Supersonic Stability'!$C$3 + ('Supersonic Stability'!C28+'Stability Constants'!$C$11*'Supersonic Stability'!C29)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
+        <v>-0.26164843997933196</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="C45" s="45">
+        <f xml:space="preserve"> C33*'Stability Constants'!$C$8/'Initial Estimates'!$C$10+'Supersonic Stability'!$C$5-C34*'Stability Constants'!$C$16*'Supersonic Stability'!$C$3 + ('Supersonic Stability'!C39+'Stability Constants'!$C$11*'Supersonic Stability'!C40)/('Stability Constants'!$C$13*'Initial Estimates'!$C$5*'Initial Estimates'!$C$10)</f>
+        <v>-0.32718562865880357</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C46" s="45">
+        <f xml:space="preserve"> ( C14 + C15*(1 - C16)*'Stability Constants'!$C$16*('Supersonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C15*(1 - C16)*'Stability Constants'!$C$16*'Supersonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
+        <v>-0.72379874047870119</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F46" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C47" s="45">
+        <f xml:space="preserve"> ( C25 + C26*(1 - C27)*'Stability Constants'!$C$16*('Supersonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C26*(1 - C27)*'Stability Constants'!$C$16*'Supersonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
+        <v>-1.5549843829289796</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C48" s="45">
+        <f xml:space="preserve"> ( C36 + C37*(1 - C38)*'Stability Constants'!$C$16*('Supersonic Stability'!$C$4/'Initial Estimates'!$C$5))*('Stability Constants'!$C$8/'Initial Estimates'!$C$10) - C37*(1 - C38)*'Stability Constants'!$C$16*'Supersonic Stability'!$C$3 + 2*('Stability Constants'!$C$4-'Stability Constants'!$C$3)*'Stability Constants'!$C$14/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5) + 2*'Stability Constants'!$C$11*('Stability Constants'!$C$6-'Stability Constants'!$C$5)*'Stability Constants'!$C$15/('Initial Estimates'!$C$10*'Initial Estimates'!$C$5)</f>
+        <v>-1.8714635497028429</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+    </row>
+    <row r="49" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+    </row>
+    <row r="52" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L16"/>
@@ -9559,20 +11173,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -9596,13 +11210,13 @@
       <c r="G2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
@@ -9626,122 +11240,116 @@
       <c r="G3" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="22"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="22"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="22"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="22"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="22"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="22"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="22"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="22"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="22"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H15:L15"/>
@@ -9752,13 +11360,19 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V41"/>
@@ -9834,7 +11448,7 @@
       <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="94" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="1"/>
@@ -9857,7 +11471,7 @@
       <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="60"/>
+      <c r="I4" s="69"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
@@ -9878,7 +11492,7 @@
       <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="69"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
@@ -9899,7 +11513,7 @@
       <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="69"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
@@ -9920,7 +11534,7 @@
       <c r="H7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="60"/>
+      <c r="I7" s="69"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9938,7 +11552,7 @@
         <v>1548.3297906099999</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="69"/>
       <c r="K8" s="1" t="s">
         <v>49</v>
       </c>
